--- a/Aanwezigheid.xlsx
+++ b/Aanwezigheid.xlsx
@@ -305,12 +305,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,8 +314,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -624,7 +624,7 @@
   <dimension ref="A2:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,6 +830,11 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="J11" t="s">
         <v>1</v>
       </c>
@@ -839,6 +844,11 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="J12" t="s">
         <v>2</v>
       </c>
@@ -848,6 +858,11 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="J13" t="s">
         <v>3</v>
       </c>
@@ -910,6 +925,11 @@
       <c r="B17" t="s">
         <v>0</v>
       </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="J17" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1132,7 @@
         <v>51</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1258,24 +1278,24 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="12">
         <v>227900000000</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
         <v>6787000</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18">
+      <c r="G12" s="12"/>
+      <c r="H12" s="13">
         <v>687</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12">
         <v>1.02</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="P12" s="14" t="s">
         <v>37</v>
       </c>
@@ -1288,24 +1308,24 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="12">
         <v>778300000000</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
         <v>139822000</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18">
+      <c r="G13" s="12"/>
+      <c r="H13" s="13">
         <v>4343.5</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12">
         <v>0.41</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
       <c r="P13" s="16">
         <f>F11*10</f>
         <v>127600000</v>
@@ -1319,93 +1339,93 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="12">
         <v>1427000000000</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
         <v>120500000</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18">
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
         <v>10767.5</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="17">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="12">
         <v>0.44</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="12">
         <v>2871000000000</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12">
         <v>51120000</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18">
+      <c r="G15" s="12"/>
+      <c r="H15" s="13">
         <v>30660</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="17">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12">
         <v>0.75</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="12">
         <v>4497100000000</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
         <v>49530000</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18">
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
         <v>60225</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="12">
         <v>0.79</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="12">
         <v>5913000000000</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
         <v>2301000</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18">
+      <c r="G17" s="12"/>
+      <c r="H17" s="13">
         <v>90520</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="12">
         <v>6.4</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
@@ -1415,10 +1435,10 @@
         <v>36</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="17">
+      <c r="F18" s="12">
         <v>1391000000</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="10" t="s">
         <v>36</v>
       </c>
@@ -1449,10 +1469,10 @@
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="12"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
@@ -1480,11 +1500,11 @@
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="P21" s="13">
+      <c r="P21" s="18">
         <f>H21/30</f>
         <v>253440</v>
       </c>
-      <c r="Q21" s="13"/>
+      <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
@@ -1878,72 +1898,30 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="D29:E29"/>
@@ -1968,30 +1946,72 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:M24"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Aanwezigheid.xlsx
+++ b/Aanwezigheid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
   <si>
     <t>Maandag</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Strikes</t>
+  </si>
+  <si>
+    <t>15 min</t>
   </si>
 </sst>
 </file>
@@ -290,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -298,15 +301,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,12 +320,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -624,7 +626,7 @@
   <dimension ref="A2:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +810,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
@@ -826,7 +828,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -840,7 +842,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -854,7 +856,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -938,6 +940,11 @@
       <c r="B18" t="s">
         <v>1</v>
       </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="J18" t="s">
         <v>1</v>
       </c>
@@ -946,6 +953,11 @@
       <c r="B19" t="s">
         <v>2</v>
       </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="J19" t="s">
         <v>2</v>
       </c>
@@ -954,6 +966,11 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
       <c r="J20" t="s">
         <v>3</v>
       </c>
@@ -1016,11 +1033,13 @@
       <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J24" t="s">
         <v>0</v>
       </c>
@@ -1029,6 +1048,13 @@
       <c r="B25" t="s">
         <v>1</v>
       </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J25" t="s">
         <v>1</v>
       </c>
@@ -1037,6 +1063,13 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="J26" t="s">
         <v>2</v>
       </c>
@@ -1045,6 +1078,13 @@
       <c r="B27" t="s">
         <v>3</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
       <c r="J27" t="s">
         <v>3</v>
       </c>
@@ -1111,19 +1151,19 @@
       <c r="G31" s="6"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1132,7 +1172,7 @@
         <v>51</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1174,24 +1214,24 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="S8" t="s">
         <v>39</v>
       </c>
@@ -1200,24 +1240,24 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>57900000000</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
         <v>4878000</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10">
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
         <v>88</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10">
         <v>58.6</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
       <c r="S9" t="s">
         <v>40</v>
       </c>
@@ -1226,24 +1266,24 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>108200000000</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
         <v>12104000</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10">
+      <c r="G10" s="10"/>
+      <c r="H10" s="9">
         <v>225</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10">
         <v>241</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
       <c r="S10" t="s">
         <v>41</v>
       </c>
@@ -1252,24 +1292,24 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>149600000000</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
         <v>12760000</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10">
+      <c r="G11" s="10"/>
+      <c r="H11" s="9">
         <v>365.24</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
       <c r="S11" t="s">
         <v>42</v>
       </c>
@@ -1278,28 +1318,28 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>227900000000</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16">
         <v>6787000</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13">
+      <c r="G12" s="16"/>
+      <c r="H12" s="17">
         <v>687</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="12">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16">
         <v>1.02</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="P12" s="14" t="s">
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="P12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="15"/>
+      <c r="Q12" s="14"/>
       <c r="S12" t="s">
         <v>43</v>
       </c>
@@ -1308,29 +1348,29 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="16">
         <v>778300000000</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16">
         <v>139822000</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13">
+      <c r="G13" s="16"/>
+      <c r="H13" s="17">
         <v>4343.5</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="12">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16">
         <v>0.41</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="P13" s="16">
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="P13" s="15">
         <f>F11*10</f>
         <v>127600000</v>
       </c>
-      <c r="Q13" s="16"/>
+      <c r="Q13" s="15"/>
       <c r="S13" t="s">
         <v>44</v>
       </c>
@@ -1339,589 +1379,631 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="16">
         <v>1427000000000</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16">
         <v>120500000</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13">
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
         <v>10767.5</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="12">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16">
         <v>0.44</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="16">
         <v>2871000000000</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16">
         <v>51120000</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13">
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
         <v>30660</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="12">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16">
         <v>0.75</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="16">
         <v>4497100000000</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16">
         <v>49530000</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13">
+      <c r="G16" s="16"/>
+      <c r="H16" s="17">
         <v>60225</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="12">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="16">
         <v>0.79</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="16">
         <v>5913000000000</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16">
         <v>2301000</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13">
+      <c r="G17" s="16"/>
+      <c r="H17" s="17">
         <v>90520</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="12">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="16">
         <v>6.4</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12">
+      <c r="E18" s="10"/>
+      <c r="F18" s="16">
         <v>1391000000</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11" t="s">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="P20" s="17" t="s">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="P20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="17"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f>D9/$P$13</f>
         <v>453.76175548589339</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
         <f>F9/$P$13</f>
         <v>3.822884012539185E-2</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10">
+      <c r="G21" s="10"/>
+      <c r="H21" s="9">
         <f>((H9*24)*60)*60</f>
         <v>7603200</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9">
         <f>((K9*24)*60)*60</f>
         <v>5063040</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="P21" s="18">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="P21" s="12">
         <f>H21/30</f>
         <v>253440</v>
       </c>
-      <c r="Q21" s="18"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <f t="shared" ref="D22:D29" si="0">D10/$P$13</f>
         <v>847.96238244514109</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
         <f t="shared" ref="F22:F30" si="1">F10/$P$13</f>
         <v>9.4858934169278999E-2</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10">
+      <c r="G22" s="10"/>
+      <c r="H22" s="9">
         <f t="shared" ref="H22:H29" si="2">((H10*24)*60)*60</f>
         <v>19440000</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9">
         <f t="shared" ref="K22:K29" si="3">((K10*24)*60)*60</f>
         <v>20822400</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <f t="shared" si="0"/>
         <v>1172.4137931034484</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10">
+      <c r="G23" s="10"/>
+      <c r="H23" s="9">
         <f t="shared" si="2"/>
         <v>31556736</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
         <f t="shared" si="3"/>
         <v>86400</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <f t="shared" si="0"/>
         <v>1786.0501567398119</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
         <f t="shared" si="1"/>
         <v>5.3189655172413794E-2</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10">
+      <c r="G24" s="10"/>
+      <c r="H24" s="9">
         <f t="shared" si="2"/>
         <v>59356800</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9">
         <f t="shared" si="3"/>
         <v>88128</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>6099.5297805642631</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
         <f t="shared" si="1"/>
         <v>1.0957836990595611</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10">
+      <c r="G25" s="10"/>
+      <c r="H25" s="9">
         <f t="shared" si="2"/>
         <v>375278400</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9">
         <f t="shared" si="3"/>
         <v>35424</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <f t="shared" si="0"/>
         <v>11183.385579937303</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
         <f t="shared" si="1"/>
         <v>0.94435736677115989</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10">
+      <c r="G26" s="10"/>
+      <c r="H26" s="9">
         <f t="shared" si="2"/>
         <v>930312000</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9">
         <f t="shared" si="3"/>
         <v>38016</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
         <f t="shared" si="1"/>
         <v>0.40062695924764891</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10">
+      <c r="G27" s="10"/>
+      <c r="H27" s="9">
         <f t="shared" si="2"/>
         <v>2649024000</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9">
         <f t="shared" si="3"/>
         <v>64800</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <f t="shared" si="0"/>
         <v>35243.730407523508</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
         <f t="shared" si="1"/>
         <v>0.38816614420062695</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10">
+      <c r="G28" s="10"/>
+      <c r="H28" s="9">
         <f t="shared" si="2"/>
         <v>5203440000</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9">
         <f t="shared" si="3"/>
         <v>68256.000000000015</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <f t="shared" si="0"/>
         <v>46340.125391849528</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
         <f t="shared" si="1"/>
         <v>1.8032915360501566E-2</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10">
+      <c r="G29" s="10"/>
+      <c r="H29" s="9">
         <f t="shared" si="2"/>
         <v>7820928000</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9">
         <f t="shared" si="3"/>
         <v>552960.00000000012</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
         <f t="shared" si="1"/>
         <v>10.901253918495298</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11" t="s">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="11" t="s">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <f>H21/$P$21</f>
         <v>30</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9">
         <f>K21/$P$21</f>
         <v>19.977272727272727</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <f t="shared" ref="H34:H41" si="4">H22/$P$21</f>
         <v>76.704545454545453</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9">
         <f t="shared" ref="K34:K41" si="5">K22/$P$21</f>
         <v>82.159090909090907</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <f t="shared" si="4"/>
         <v>124.51363636363637</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9">
         <f t="shared" si="5"/>
         <v>0.34090909090909088</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <f t="shared" si="4"/>
         <v>234.20454545454547</v>
       </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9">
         <f t="shared" si="5"/>
         <v>0.34772727272727272</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <f t="shared" si="4"/>
         <v>1480.7386363636363</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9">
         <f t="shared" si="5"/>
         <v>0.13977272727272727</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <f t="shared" si="4"/>
         <v>3670.7386363636365</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9">
         <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <f t="shared" si="4"/>
         <v>10452.272727272728</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9">
         <f t="shared" si="5"/>
         <v>0.25568181818181818</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <f t="shared" si="4"/>
         <v>20531.25</v>
       </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9">
         <f t="shared" si="5"/>
         <v>0.2693181818181819</v>
       </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <f t="shared" si="4"/>
         <v>30859.090909090908</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9">
         <f t="shared" si="5"/>
         <v>2.1818181818181821</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="11" t="s">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="D29:E29"/>
@@ -1946,72 +2028,30 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:M24"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Aanwezigheid.xlsx
+++ b/Aanwezigheid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
   <si>
     <t>Maandag</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>15 min</t>
+  </si>
+  <si>
+    <t>3 min</t>
+  </si>
+  <si>
+    <t>Prototype Presentatie</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -305,14 +311,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,8 +322,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -623,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R34"/>
+  <dimension ref="A2:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -682,9 +689,19 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
+      <c r="I3" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="J3" t="s">
         <v>0</v>
       </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="Q3" t="s">
         <v>10</v>
       </c>
@@ -701,6 +718,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="I4" s="8"/>
       <c r="J4" t="s">
         <v>1</v>
       </c>
@@ -720,6 +738,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="I5" s="8"/>
       <c r="J5" t="s">
         <v>2</v>
       </c>
@@ -728,7 +747,7 @@
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -739,6 +758,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="1"/>
+      <c r="I6" s="8"/>
       <c r="J6" t="s">
         <v>3</v>
       </c>
@@ -1144,52 +1164,53 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="C34">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="D34">
+      <c r="D33">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E33">
         <v>0</v>
       </c>
-      <c r="F34">
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G33">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1214,24 +1235,24 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
       <c r="S8" t="s">
         <v>39</v>
       </c>
@@ -1240,24 +1261,24 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>57900000000</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
         <v>4878000</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9">
+      <c r="G9" s="9"/>
+      <c r="H9" s="11">
         <v>88</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9">
         <v>58.6</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
       <c r="S9" t="s">
         <v>40</v>
       </c>
@@ -1266,24 +1287,24 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>108200000000</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <v>12104000</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9">
+      <c r="G10" s="9"/>
+      <c r="H10" s="11">
         <v>225</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9">
         <v>241</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
       <c r="S10" t="s">
         <v>41</v>
       </c>
@@ -1292,24 +1313,24 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>149600000000</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
         <v>12760000</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9">
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
         <v>365.24</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9">
         <v>1</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
       <c r="S11" t="s">
         <v>42</v>
       </c>
@@ -1318,24 +1339,24 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="10">
         <v>227900000000</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
         <v>6787000</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17">
+      <c r="G12" s="10"/>
+      <c r="H12" s="12">
         <v>687</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16">
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10">
         <v>1.02</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
       <c r="P12" s="13" t="s">
         <v>37</v>
       </c>
@@ -1348,24 +1369,24 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="10">
         <v>778300000000</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
         <v>139822000</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17">
+      <c r="G13" s="10"/>
+      <c r="H13" s="12">
         <v>4343.5</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="16">
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10">
         <v>0.41</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
       <c r="P13" s="15">
         <f>F11*10</f>
         <v>127600000</v>
@@ -1379,631 +1400,589 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="10">
         <v>1427000000000</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
         <v>120500000</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17">
+      <c r="G14" s="10"/>
+      <c r="H14" s="12">
         <v>10767.5</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="16">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="10">
         <v>0.44</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="10">
         <v>2871000000000</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
         <v>51120000</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
+      <c r="G15" s="10"/>
+      <c r="H15" s="12">
         <v>30660</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="16">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="10">
         <v>0.75</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="10">
         <v>4497100000000</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
         <v>49530000</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17">
+      <c r="G16" s="10"/>
+      <c r="H16" s="12">
         <v>60225</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="16">
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="10">
         <v>0.79</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="10">
         <v>5913000000000</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
         <v>2301000</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17">
+      <c r="G17" s="10"/>
+      <c r="H17" s="12">
         <v>90520</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="16">
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="10">
         <v>6.4</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="16">
+      <c r="E18" s="9"/>
+      <c r="F18" s="10">
         <v>1391000000</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="9" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="P20" s="11" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="P20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="11"/>
+      <c r="Q20" s="16"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <f>D9/$P$13</f>
         <v>453.76175548589339</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9">
         <f>F9/$P$13</f>
         <v>3.822884012539185E-2</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9">
+      <c r="G21" s="9"/>
+      <c r="H21" s="11">
         <f>((H9*24)*60)*60</f>
         <v>7603200</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9">
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11">
         <f>((K9*24)*60)*60</f>
         <v>5063040</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="P21" s="12">
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="P21" s="17">
         <f>H21/30</f>
         <v>253440</v>
       </c>
-      <c r="Q21" s="12"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <f t="shared" ref="D22:D29" si="0">D10/$P$13</f>
         <v>847.96238244514109</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9">
         <f t="shared" ref="F22:F30" si="1">F10/$P$13</f>
         <v>9.4858934169278999E-2</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9">
+      <c r="G22" s="9"/>
+      <c r="H22" s="11">
         <f t="shared" ref="H22:H29" si="2">((H10*24)*60)*60</f>
         <v>19440000</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9">
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11">
         <f t="shared" ref="K22:K29" si="3">((K10*24)*60)*60</f>
         <v>20822400</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <f t="shared" si="0"/>
         <v>1172.4137931034484</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="9">
+      <c r="G23" s="9"/>
+      <c r="H23" s="11">
         <f t="shared" si="2"/>
         <v>31556736</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11">
         <f t="shared" si="3"/>
         <v>86400</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <f t="shared" si="0"/>
         <v>1786.0501567398119</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
         <f t="shared" si="1"/>
         <v>5.3189655172413794E-2</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9">
+      <c r="G24" s="9"/>
+      <c r="H24" s="11">
         <f t="shared" si="2"/>
         <v>59356800</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9">
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11">
         <f t="shared" si="3"/>
         <v>88128</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <f t="shared" si="0"/>
         <v>6099.5297805642631</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
         <f t="shared" si="1"/>
         <v>1.0957836990595611</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9">
+      <c r="G25" s="9"/>
+      <c r="H25" s="11">
         <f t="shared" si="2"/>
         <v>375278400</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9">
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11">
         <f t="shared" si="3"/>
         <v>35424</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <f t="shared" si="0"/>
         <v>11183.385579937303</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
         <f t="shared" si="1"/>
         <v>0.94435736677115989</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9">
+      <c r="G26" s="9"/>
+      <c r="H26" s="11">
         <f t="shared" si="2"/>
         <v>930312000</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11">
         <f t="shared" si="3"/>
         <v>38016</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
         <f t="shared" si="1"/>
         <v>0.40062695924764891</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="9">
+      <c r="G27" s="9"/>
+      <c r="H27" s="11">
         <f t="shared" si="2"/>
         <v>2649024000</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9">
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11">
         <f t="shared" si="3"/>
         <v>64800</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <f t="shared" si="0"/>
         <v>35243.730407523508</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
         <f t="shared" si="1"/>
         <v>0.38816614420062695</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="9">
+      <c r="G28" s="9"/>
+      <c r="H28" s="11">
         <f t="shared" si="2"/>
         <v>5203440000</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9">
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11">
         <f t="shared" si="3"/>
         <v>68256.000000000015</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <f t="shared" si="0"/>
         <v>46340.125391849528</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
         <f t="shared" si="1"/>
         <v>1.8032915360501566E-2</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="9">
+      <c r="G29" s="9"/>
+      <c r="H29" s="11">
         <f t="shared" si="2"/>
         <v>7820928000</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9">
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11">
         <f t="shared" si="3"/>
         <v>552960.00000000012</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
         <f t="shared" si="1"/>
         <v>10.901253918495298</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="9" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10" t="s">
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H33" s="9">
+      <c r="H33" s="11">
         <f>H21/$P$21</f>
         <v>30</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11">
         <f>K21/$P$21</f>
         <v>19.977272727272727</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="9">
+      <c r="H34" s="11">
         <f t="shared" ref="H34:H41" si="4">H22/$P$21</f>
         <v>76.704545454545453</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9">
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11">
         <f t="shared" ref="K34:K41" si="5">K22/$P$21</f>
         <v>82.159090909090907</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="9">
+      <c r="H35" s="11">
         <f t="shared" si="4"/>
         <v>124.51363636363637</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9">
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11">
         <f t="shared" si="5"/>
         <v>0.34090909090909088</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="9">
+      <c r="H36" s="11">
         <f t="shared" si="4"/>
         <v>234.20454545454547</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9">
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11">
         <f t="shared" si="5"/>
         <v>0.34772727272727272</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="9">
+      <c r="H37" s="11">
         <f t="shared" si="4"/>
         <v>1480.7386363636363</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11">
         <f t="shared" si="5"/>
         <v>0.13977272727272727</v>
       </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="9">
+      <c r="H38" s="11">
         <f t="shared" si="4"/>
         <v>3670.7386363636365</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9">
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11">
         <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="9">
+      <c r="H39" s="11">
         <f t="shared" si="4"/>
         <v>10452.272727272728</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9">
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11">
         <f t="shared" si="5"/>
         <v>0.25568181818181818</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H40" s="9">
+      <c r="H40" s="11">
         <f t="shared" si="4"/>
         <v>20531.25</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9">
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11">
         <f t="shared" si="5"/>
         <v>0.2693181818181819</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H41" s="9">
+      <c r="H41" s="11">
         <f t="shared" si="4"/>
         <v>30859.090909090908</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9">
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11">
         <f t="shared" si="5"/>
         <v>2.1818181818181821</v>
       </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10" t="s">
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="D29:E29"/>
@@ -2028,30 +2007,72 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:M24"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Aanwezigheid.xlsx
+++ b/Aanwezigheid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8520"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Aanwezigheid" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
   <si>
     <t>Maandag</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Prototype Presentatie</t>
+  </si>
+  <si>
+    <t>Earth moon</t>
+  </si>
+  <si>
+    <t>Distance in m from earth</t>
+  </si>
+  <si>
+    <t>in unity</t>
   </si>
 </sst>
 </file>
@@ -308,13 +317,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,13 +336,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -632,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -689,7 +698,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>54</v>
       </c>
       <c r="J3" t="s">
@@ -718,7 +727,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="9"/>
       <c r="J4" t="s">
         <v>1</v>
       </c>
@@ -738,7 +747,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="9"/>
       <c r="J5" t="s">
         <v>2</v>
       </c>
@@ -758,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="9"/>
       <c r="J6" t="s">
         <v>3</v>
       </c>
@@ -830,7 +839,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
@@ -848,7 +857,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -862,7 +871,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -876,7 +885,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -1164,11 +1173,11 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C32" s="7" t="s">
@@ -1219,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:S42"/>
+  <dimension ref="C8:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,24 +1244,24 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="9" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
       <c r="S8" t="s">
         <v>39</v>
       </c>
@@ -1261,24 +1270,24 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <v>57900000000</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
         <v>4878000</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11">
+      <c r="G9" s="11"/>
+      <c r="H9" s="10">
         <v>88</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="9">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11">
         <v>58.6</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
       <c r="S9" t="s">
         <v>40</v>
       </c>
@@ -1287,24 +1296,24 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>108200000000</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
         <v>12104000</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11">
+      <c r="G10" s="11"/>
+      <c r="H10" s="10">
         <v>225</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="9">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11">
         <v>241</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
       <c r="S10" t="s">
         <v>41</v>
       </c>
@@ -1313,24 +1322,24 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>149600000000</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
         <v>12760000</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11">
+      <c r="G11" s="11"/>
+      <c r="H11" s="10">
         <v>365.24</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="9">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11">
         <v>1</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
       <c r="S11" t="s">
         <v>42</v>
       </c>
@@ -1339,28 +1348,28 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="17">
         <v>227900000000</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17">
         <v>6787000</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12">
+      <c r="G12" s="17"/>
+      <c r="H12" s="18">
         <v>687</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="10">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="17">
         <v>1.02</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="P12" s="13" t="s">
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="P12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="15"/>
       <c r="S12" t="s">
         <v>43</v>
       </c>
@@ -1369,29 +1378,29 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="17">
         <v>778300000000</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17">
         <v>139822000</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12">
+      <c r="G13" s="17"/>
+      <c r="H13" s="18">
         <v>4343.5</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="10">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="17">
         <v>0.41</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="P13" s="15">
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="P13" s="16">
         <f>F11*10</f>
         <v>127600000</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="16"/>
       <c r="S13" t="s">
         <v>44</v>
       </c>
@@ -1400,589 +1409,647 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="17">
         <v>1427000000000</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17">
         <v>120500000</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="12">
+      <c r="G14" s="17"/>
+      <c r="H14" s="18">
         <v>10767.5</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="10">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="17">
         <v>0.44</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="17">
         <v>2871000000000</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17">
         <v>51120000</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="12">
+      <c r="G15" s="17"/>
+      <c r="H15" s="18">
         <v>30660</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="10">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="17">
         <v>0.75</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="17">
         <v>4497100000000</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17">
         <v>49530000</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="12">
+      <c r="G16" s="17"/>
+      <c r="H16" s="18">
         <v>60225</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="10">
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="17">
         <v>0.79</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="17">
         <v>5913000000000</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17">
         <v>2301000</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="12">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18">
         <v>90520</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="10">
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="17">
         <v>6.4</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10">
+      <c r="E18" s="11"/>
+      <c r="F18" s="17">
         <v>1391000000</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="9" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="9" t="s">
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="9" t="s">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="P20" s="16" t="s">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="P20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="11">
         <f>D9/$P$13</f>
         <v>453.76175548589339</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11">
         <f>F9/$P$13</f>
         <v>3.822884012539185E-2</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11">
+      <c r="G21" s="11"/>
+      <c r="H21" s="10">
         <f>((H9*24)*60)*60</f>
         <v>7603200</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10">
         <f>((K9*24)*60)*60</f>
         <v>5063040</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="P21" s="17">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="P21" s="13">
         <f>H21/30</f>
         <v>253440</v>
       </c>
-      <c r="Q21" s="17"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="11">
         <f t="shared" ref="D22:D29" si="0">D10/$P$13</f>
         <v>847.96238244514109</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11">
         <f t="shared" ref="F22:F30" si="1">F10/$P$13</f>
         <v>9.4858934169278999E-2</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11">
+      <c r="G22" s="11"/>
+      <c r="H22" s="10">
         <f t="shared" ref="H22:H29" si="2">((H10*24)*60)*60</f>
         <v>19440000</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11">
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10">
         <f t="shared" ref="K22:K29" si="3">((K10*24)*60)*60</f>
         <v>20822400</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="11">
         <f t="shared" si="0"/>
         <v>1172.4137931034484</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11">
+      <c r="G23" s="11"/>
+      <c r="H23" s="10">
         <f t="shared" si="2"/>
         <v>31556736</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10">
         <f t="shared" si="3"/>
         <v>86400</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <f t="shared" si="0"/>
         <v>1786.0501567398119</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11">
         <f t="shared" si="1"/>
         <v>5.3189655172413794E-2</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="11">
+      <c r="G24" s="11"/>
+      <c r="H24" s="10">
         <f t="shared" si="2"/>
         <v>59356800</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10">
         <f t="shared" si="3"/>
         <v>88128</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="11">
         <f t="shared" si="0"/>
         <v>6099.5297805642631</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11">
         <f t="shared" si="1"/>
         <v>1.0957836990595611</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="11">
+      <c r="G25" s="11"/>
+      <c r="H25" s="10">
         <f t="shared" si="2"/>
         <v>375278400</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11">
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10">
         <f t="shared" si="3"/>
         <v>35424</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="11">
         <f t="shared" si="0"/>
         <v>11183.385579937303</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11">
         <f t="shared" si="1"/>
         <v>0.94435736677115989</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="11">
+      <c r="G26" s="11"/>
+      <c r="H26" s="10">
         <f t="shared" si="2"/>
         <v>930312000</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11">
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10">
         <f t="shared" si="3"/>
         <v>38016</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="P26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26">
+        <v>384400000</v>
+      </c>
+      <c r="T26">
+        <f>Q26/P13 + D23</f>
+        <v>1175.4263322884015</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="11">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11">
         <f t="shared" si="1"/>
         <v>0.40062695924764891</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="11">
+      <c r="G27" s="11"/>
+      <c r="H27" s="10">
         <f t="shared" si="2"/>
         <v>2649024000</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10">
         <f t="shared" si="3"/>
         <v>64800</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="11">
         <f t="shared" si="0"/>
         <v>35243.730407523508</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11">
         <f t="shared" si="1"/>
         <v>0.38816614420062695</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="11">
+      <c r="G28" s="11"/>
+      <c r="H28" s="10">
         <f t="shared" si="2"/>
         <v>5203440000</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10">
         <f t="shared" si="3"/>
         <v>68256.000000000015</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="11">
         <f t="shared" si="0"/>
         <v>46340.125391849528</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11">
         <f t="shared" si="1"/>
         <v>1.8032915360501566E-2</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="11">
+      <c r="G29" s="11"/>
+      <c r="H29" s="10">
         <f t="shared" si="2"/>
         <v>7820928000</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10">
         <f t="shared" si="3"/>
         <v>552960.00000000012</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11">
         <f t="shared" si="1"/>
         <v>10.901253918495298</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="11" t="s">
+      <c r="G30" s="11"/>
+      <c r="H30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="9" t="s">
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="H32" s="11" t="s">
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="H32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="9" t="s">
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H33" s="11">
+      <c r="H33" s="10">
         <f>H21/$P$21</f>
         <v>30</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11">
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10">
         <f>K21/$P$21</f>
         <v>19.977272727272727</v>
       </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <f t="shared" ref="H34:H41" si="4">H22/$P$21</f>
         <v>76.704545454545453</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11">
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10">
         <f t="shared" ref="K34:K41" si="5">K22/$P$21</f>
         <v>82.159090909090907</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="11">
+      <c r="H35" s="10">
         <f t="shared" si="4"/>
         <v>124.51363636363637</v>
       </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11">
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10">
         <f t="shared" si="5"/>
         <v>0.34090909090909088</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <f t="shared" si="4"/>
         <v>234.20454545454547</v>
       </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11">
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10">
         <f t="shared" si="5"/>
         <v>0.34772727272727272</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <f t="shared" si="4"/>
         <v>1480.7386363636363</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11">
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10">
         <f t="shared" si="5"/>
         <v>0.13977272727272727</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <f t="shared" si="4"/>
         <v>3670.7386363636365</v>
       </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11">
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10">
         <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <f t="shared" si="4"/>
         <v>10452.272727272728</v>
       </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11">
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10">
         <f t="shared" si="5"/>
         <v>0.25568181818181818</v>
       </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <f t="shared" si="4"/>
         <v>20531.25</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11">
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10">
         <f t="shared" si="5"/>
         <v>0.2693181818181819</v>
       </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <f t="shared" si="4"/>
         <v>30859.090909090908</v>
       </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11">
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10">
         <f t="shared" si="5"/>
         <v>2.1818181818181821</v>
       </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="9" t="s">
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="D29:E29"/>
@@ -2007,72 +2074,30 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:M24"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Aanwezigheid.xlsx
+++ b/Aanwezigheid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Aanwezigheid" sheetId="1" r:id="rId1"/>
@@ -321,14 +321,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,8 +332,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,6 +731,11 @@
       <c r="J4" t="s">
         <v>1</v>
       </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="Q4" t="s">
         <v>11</v>
       </c>
@@ -751,6 +756,11 @@
       <c r="J5" t="s">
         <v>2</v>
       </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="Q5" t="s">
         <v>12</v>
       </c>
@@ -1230,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,24 +1254,24 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="S8" t="s">
         <v>39</v>
       </c>
@@ -1270,24 +1280,24 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>57900000000</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
         <v>4878000</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10">
+      <c r="G9" s="10"/>
+      <c r="H9" s="12">
         <v>88</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="10">
         <v>58.6</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
       <c r="S9" t="s">
         <v>40</v>
       </c>
@@ -1296,24 +1306,24 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>108200000000</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
         <v>12104000</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10">
+      <c r="G10" s="10"/>
+      <c r="H10" s="12">
         <v>225</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="10">
         <v>241</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
       <c r="S10" t="s">
         <v>41</v>
       </c>
@@ -1322,24 +1332,24 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>149600000000</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
         <v>12760000</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10">
+      <c r="G11" s="10"/>
+      <c r="H11" s="12">
         <v>365.24</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
       <c r="S11" t="s">
         <v>42</v>
       </c>
@@ -1348,24 +1358,24 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="11">
         <v>227900000000</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
         <v>6787000</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18">
+      <c r="G12" s="11"/>
+      <c r="H12" s="13">
         <v>687</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="11">
         <v>1.02</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
       <c r="P12" s="14" t="s">
         <v>37</v>
       </c>
@@ -1378,24 +1388,24 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="11">
         <v>778300000000</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
         <v>139822000</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18">
+      <c r="G13" s="11"/>
+      <c r="H13" s="13">
         <v>4343.5</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="11">
         <v>0.41</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
       <c r="P13" s="16">
         <f>F11*10</f>
         <v>127600000</v>
@@ -1409,280 +1419,280 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="11">
         <v>1427000000000</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
         <v>120500000</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18">
+      <c r="G14" s="11"/>
+      <c r="H14" s="13">
         <v>10767.5</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="17">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="11">
         <v>0.44</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="11">
         <v>2871000000000</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
         <v>51120000</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18">
+      <c r="G15" s="11"/>
+      <c r="H15" s="13">
         <v>30660</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="17">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="11">
         <v>0.75</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="11">
         <v>4497100000000</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
         <v>49530000</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18">
+      <c r="G16" s="11"/>
+      <c r="H16" s="13">
         <v>60225</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="11">
         <v>0.79</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="11">
         <v>5913000000000</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
         <v>2301000</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18">
+      <c r="G17" s="11"/>
+      <c r="H17" s="13">
         <v>90520</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="11">
         <v>6.4</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="17">
+      <c r="E18" s="10"/>
+      <c r="F18" s="11">
         <v>1391000000</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="P20" s="12" t="s">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="P20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="12"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f>D9/$P$13</f>
         <v>453.76175548589339</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
         <f>F9/$P$13</f>
         <v>3.822884012539185E-2</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10">
+      <c r="G21" s="10"/>
+      <c r="H21" s="12">
         <f>((H9*24)*60)*60</f>
         <v>7603200</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12">
         <f>((K9*24)*60)*60</f>
         <v>5063040</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="P21" s="13">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="P21" s="18">
         <f>H21/30</f>
         <v>253440</v>
       </c>
-      <c r="Q21" s="13"/>
+      <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <f t="shared" ref="D22:D29" si="0">D10/$P$13</f>
         <v>847.96238244514109</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
         <f t="shared" ref="F22:F30" si="1">F10/$P$13</f>
         <v>9.4858934169278999E-2</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10">
+      <c r="G22" s="10"/>
+      <c r="H22" s="12">
         <f t="shared" ref="H22:H29" si="2">((H10*24)*60)*60</f>
         <v>19440000</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12">
         <f t="shared" ref="K22:K29" si="3">((K10*24)*60)*60</f>
         <v>20822400</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <f t="shared" si="0"/>
         <v>1172.4137931034484</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10">
+      <c r="G23" s="10"/>
+      <c r="H23" s="12">
         <f t="shared" si="2"/>
         <v>31556736</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12">
         <f t="shared" si="3"/>
         <v>86400</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <f t="shared" si="0"/>
         <v>1786.0501567398119</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
         <f t="shared" si="1"/>
         <v>5.3189655172413794E-2</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10">
+      <c r="G24" s="10"/>
+      <c r="H24" s="12">
         <f t="shared" si="2"/>
         <v>59356800</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10">
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12">
         <f t="shared" si="3"/>
         <v>88128</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>6099.5297805642631</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
         <f t="shared" si="1"/>
         <v>1.0957836990595611</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10">
+      <c r="G25" s="10"/>
+      <c r="H25" s="12">
         <f t="shared" si="2"/>
         <v>375278400</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10">
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12">
         <f t="shared" si="3"/>
         <v>35424</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
       <c r="Q25" t="s">
         <v>56</v>
       </c>
@@ -1694,28 +1704,28 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <f t="shared" si="0"/>
         <v>11183.385579937303</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
         <f t="shared" si="1"/>
         <v>0.94435736677115989</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10">
+      <c r="G26" s="10"/>
+      <c r="H26" s="12">
         <f t="shared" si="2"/>
         <v>930312000</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10">
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12">
         <f t="shared" si="3"/>
         <v>38016</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
       <c r="P26" t="s">
         <v>55</v>
       </c>
@@ -1731,325 +1741,283 @@
       <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
         <f t="shared" si="1"/>
         <v>0.40062695924764891</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10">
+      <c r="G27" s="10"/>
+      <c r="H27" s="12">
         <f t="shared" si="2"/>
         <v>2649024000</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10">
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12">
         <f t="shared" si="3"/>
         <v>64800</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <f t="shared" si="0"/>
         <v>35243.730407523508</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
         <f t="shared" si="1"/>
         <v>0.38816614420062695</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10">
+      <c r="G28" s="10"/>
+      <c r="H28" s="12">
         <f t="shared" si="2"/>
         <v>5203440000</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12">
         <f t="shared" si="3"/>
         <v>68256.000000000015</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <f t="shared" si="0"/>
         <v>46340.125391849528</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
         <f t="shared" si="1"/>
         <v>1.8032915360501566E-2</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10">
+      <c r="G29" s="10"/>
+      <c r="H29" s="12">
         <f t="shared" si="2"/>
         <v>7820928000</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10">
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12">
         <f t="shared" si="3"/>
         <v>552960.00000000012</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
         <f t="shared" si="1"/>
         <v>10.901253918495298</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11" t="s">
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="11" t="s">
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H33" s="10">
+      <c r="H33" s="12">
         <f>H21/$P$21</f>
         <v>30</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10">
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12">
         <f>K21/$P$21</f>
         <v>19.977272727272727</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="10">
+      <c r="H34" s="12">
         <f t="shared" ref="H34:H41" si="4">H22/$P$21</f>
         <v>76.704545454545453</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10">
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12">
         <f t="shared" ref="K34:K41" si="5">K22/$P$21</f>
         <v>82.159090909090907</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="10">
+      <c r="H35" s="12">
         <f t="shared" si="4"/>
         <v>124.51363636363637</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10">
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12">
         <f t="shared" si="5"/>
         <v>0.34090909090909088</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="10">
+      <c r="H36" s="12">
         <f t="shared" si="4"/>
         <v>234.20454545454547</v>
       </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10">
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12">
         <f t="shared" si="5"/>
         <v>0.34772727272727272</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="10">
+      <c r="H37" s="12">
         <f t="shared" si="4"/>
         <v>1480.7386363636363</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10">
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12">
         <f t="shared" si="5"/>
         <v>0.13977272727272727</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="10">
+      <c r="H38" s="12">
         <f t="shared" si="4"/>
         <v>3670.7386363636365</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10">
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12">
         <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="10">
+      <c r="H39" s="12">
         <f t="shared" si="4"/>
         <v>10452.272727272728</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10">
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12">
         <f t="shared" si="5"/>
         <v>0.25568181818181818</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H40" s="10">
+      <c r="H40" s="12">
         <f t="shared" si="4"/>
         <v>20531.25</v>
       </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10">
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12">
         <f t="shared" si="5"/>
         <v>0.2693181818181819</v>
       </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H41" s="10">
+      <c r="H41" s="12">
         <f t="shared" si="4"/>
         <v>30859.090909090908</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10">
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12">
         <f t="shared" si="5"/>
         <v>2.1818181818181821</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="11" t="s">
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="D29:E29"/>
@@ -2074,30 +2042,72 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:M24"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Aanwezigheid.xlsx
+++ b/Aanwezigheid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8520"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Aanwezigheid" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
   <si>
     <t>Maandag</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>in unity</t>
+  </si>
+  <si>
+    <t>Rotatie om as in graden per seconde</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -318,6 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -641,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +702,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J3" t="s">
@@ -727,7 +731,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="10"/>
       <c r="J4" t="s">
         <v>1</v>
       </c>
@@ -752,7 +756,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="10"/>
       <c r="J5" t="s">
         <v>2</v>
       </c>
@@ -777,10 +781,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="10"/>
       <c r="J6" t="s">
         <v>3</v>
       </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="Q6" t="s">
         <v>13</v>
       </c>
@@ -849,7 +858,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
@@ -867,7 +876,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -881,7 +890,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -895,7 +904,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -1238,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:T42"/>
+  <dimension ref="C8:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,24 +1263,24 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="10" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
       <c r="S8" t="s">
         <v>39</v>
       </c>
@@ -1280,24 +1289,24 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>57900000000</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
         <v>4878000</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="12">
+      <c r="G9" s="11"/>
+      <c r="H9" s="13">
         <v>88</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="10">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="11">
         <v>58.6</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
       <c r="S9" t="s">
         <v>40</v>
       </c>
@@ -1306,24 +1315,24 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>108200000000</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
         <v>12104000</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12">
+      <c r="G10" s="11"/>
+      <c r="H10" s="13">
         <v>225</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="10">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="11">
         <v>241</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
       <c r="S10" t="s">
         <v>41</v>
       </c>
@@ -1332,24 +1341,24 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>149600000000</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
         <v>12760000</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12">
+      <c r="G11" s="11"/>
+      <c r="H11" s="13">
         <v>365.24</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="10">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="11">
         <v>1</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
       <c r="S11" t="s">
         <v>42</v>
       </c>
@@ -1358,28 +1367,28 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>227900000000</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
         <v>6787000</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="13">
+      <c r="G12" s="12"/>
+      <c r="H12" s="14">
         <v>687</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="11">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="12">
         <v>1.02</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="P12" s="14" t="s">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="P12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="15"/>
+      <c r="Q12" s="16"/>
       <c r="S12" t="s">
         <v>43</v>
       </c>
@@ -1388,29 +1397,29 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="12">
         <v>778300000000</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
         <v>139822000</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13">
+      <c r="G13" s="12"/>
+      <c r="H13" s="14">
         <v>4343.5</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="11">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="12">
         <v>0.41</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="P13" s="16">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="P13" s="17">
         <f>F11*10</f>
         <v>127600000</v>
       </c>
-      <c r="Q13" s="16"/>
+      <c r="Q13" s="17"/>
       <c r="S13" t="s">
         <v>44</v>
       </c>
@@ -1419,280 +1428,280 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <v>1427000000000</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
         <v>120500000</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="13">
+      <c r="G14" s="12"/>
+      <c r="H14" s="14">
         <v>10767.5</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="11">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="12">
         <v>0.44</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="12">
         <v>2871000000000</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12">
         <v>51120000</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="13">
+      <c r="G15" s="12"/>
+      <c r="H15" s="14">
         <v>30660</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="11">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="12">
         <v>0.75</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12">
         <v>4497100000000</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
         <v>49530000</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="13">
+      <c r="G16" s="12"/>
+      <c r="H16" s="14">
         <v>60225</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="11">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="12">
         <v>0.79</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>5913000000000</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
         <v>2301000</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="13">
+      <c r="G17" s="12"/>
+      <c r="H17" s="14">
         <v>90520</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="11">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="12">
         <v>6.4</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11">
+      <c r="E18" s="11"/>
+      <c r="F18" s="12">
         <v>1391000000</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="11">
+        <v>27</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="10" t="s">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="P20" s="17" t="s">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="P20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="17"/>
+      <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <f>D9/$P$13</f>
         <v>453.76175548589339</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11">
         <f>F9/$P$13</f>
         <v>3.822884012539185E-2</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="12">
+      <c r="G21" s="11"/>
+      <c r="H21" s="13">
         <f>((H9*24)*60)*60</f>
         <v>7603200</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13">
         <f>((K9*24)*60)*60</f>
         <v>5063040</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="P21" s="18">
-        <f>H21/30</f>
-        <v>253440</v>
-      </c>
-      <c r="Q21" s="18"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="P21" s="19">
+        <f>K23/30</f>
+        <v>2880</v>
+      </c>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <f t="shared" ref="D22:D29" si="0">D10/$P$13</f>
         <v>847.96238244514109</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11">
         <f t="shared" ref="F22:F30" si="1">F10/$P$13</f>
         <v>9.4858934169278999E-2</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="12">
+      <c r="G22" s="11"/>
+      <c r="H22" s="13">
         <f t="shared" ref="H22:H29" si="2">((H10*24)*60)*60</f>
         <v>19440000</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12">
-        <f t="shared" ref="K22:K29" si="3">((K10*24)*60)*60</f>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13">
+        <f t="shared" ref="K22:K30" si="3">((K10*24)*60)*60</f>
         <v>20822400</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <f t="shared" si="0"/>
         <v>1172.4137931034484</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12">
+      <c r="G23" s="11"/>
+      <c r="H23" s="13">
         <f t="shared" si="2"/>
         <v>31556736</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12">
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13">
         <f t="shared" si="3"/>
         <v>86400</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="11">
         <f t="shared" si="0"/>
         <v>1786.0501567398119</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11">
         <f t="shared" si="1"/>
         <v>5.3189655172413794E-2</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="12">
+      <c r="G24" s="11"/>
+      <c r="H24" s="13">
         <f t="shared" si="2"/>
         <v>59356800</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12">
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13">
         <f t="shared" si="3"/>
         <v>88128</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="11">
         <f t="shared" si="0"/>
         <v>6099.5297805642631</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11">
         <f t="shared" si="1"/>
         <v>1.0957836990595611</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="12">
+      <c r="G25" s="11"/>
+      <c r="H25" s="13">
         <f t="shared" si="2"/>
         <v>375278400</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12">
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13">
         <f t="shared" si="3"/>
         <v>35424</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
       <c r="Q25" t="s">
         <v>56</v>
       </c>
@@ -1704,28 +1713,28 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <f t="shared" si="0"/>
         <v>11183.385579937303</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11">
         <f t="shared" si="1"/>
         <v>0.94435736677115989</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="12">
+      <c r="G26" s="11"/>
+      <c r="H26" s="13">
         <f t="shared" si="2"/>
         <v>930312000</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12">
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13">
         <f t="shared" si="3"/>
         <v>38016</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
       <c r="P26" t="s">
         <v>55</v>
       </c>
@@ -1741,259 +1750,416 @@
       <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="11">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11">
         <f t="shared" si="1"/>
         <v>0.40062695924764891</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="12">
+      <c r="G27" s="11"/>
+      <c r="H27" s="13">
         <f t="shared" si="2"/>
         <v>2649024000</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12">
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13">
         <f t="shared" si="3"/>
         <v>64800</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="11">
         <f t="shared" si="0"/>
         <v>35243.730407523508</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11">
         <f t="shared" si="1"/>
         <v>0.38816614420062695</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="12">
+      <c r="G28" s="11"/>
+      <c r="H28" s="13">
         <f t="shared" si="2"/>
         <v>5203440000</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13">
         <f t="shared" si="3"/>
         <v>68256.000000000015</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="11">
         <f t="shared" si="0"/>
         <v>46340.125391849528</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11">
         <f t="shared" si="1"/>
         <v>1.8032915360501566E-2</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="12">
+      <c r="G29" s="11"/>
+      <c r="H29" s="13">
         <f t="shared" si="2"/>
         <v>7820928000</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12">
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13">
         <f t="shared" si="3"/>
         <v>552960.00000000012</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11">
         <f t="shared" si="1"/>
         <v>10.901253918495298</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="11"/>
+      <c r="H30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="10" t="s">
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13">
+        <f t="shared" si="3"/>
+        <v>2332800</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="H32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="13">
+        <f>H21/$P$21</f>
+        <v>2640</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13">
+        <f>K21/$P$21</f>
+        <v>1758</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" ref="H34:H41" si="4">H22/$P$21</f>
+        <v>6750</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13">
+        <f t="shared" ref="K34:K42" si="5">K22/$P$21</f>
+        <v>7230</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="4"/>
+        <v>10957.2</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="4"/>
+        <v>20610</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13">
+        <f t="shared" si="5"/>
+        <v>30.6</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="4"/>
+        <v>130305</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13">
+        <f t="shared" si="5"/>
+        <v>12.3</v>
+      </c>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="4"/>
+        <v>323025</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13">
+        <f t="shared" si="5"/>
+        <v>13.2</v>
+      </c>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="4"/>
+        <v>919800</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13">
+        <f t="shared" si="5"/>
+        <v>22.5</v>
+      </c>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" si="4"/>
+        <v>1806750</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13">
+        <f t="shared" si="5"/>
+        <v>23.700000000000006</v>
+      </c>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="4"/>
+        <v>2715600</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13">
+        <f t="shared" si="5"/>
+        <v>192.00000000000003</v>
+      </c>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="H32" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H33" s="12">
-        <f>H21/$P$21</f>
-        <v>30</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12">
-        <f>K21/$P$21</f>
-        <v>19.977272727272727</v>
-      </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="12">
-        <f t="shared" ref="H34:H41" si="4">H22/$P$21</f>
-        <v>76.704545454545453</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12">
-        <f t="shared" ref="K34:K41" si="5">K22/$P$21</f>
-        <v>82.159090909090907</v>
-      </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="12">
-        <f t="shared" si="4"/>
-        <v>124.51363636363637</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12">
-        <f t="shared" si="5"/>
-        <v>0.34090909090909088</v>
-      </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="12">
-        <f t="shared" si="4"/>
-        <v>234.20454545454547</v>
-      </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12">
-        <f t="shared" si="5"/>
-        <v>0.34772727272727272</v>
-      </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="12">
-        <f t="shared" si="4"/>
-        <v>1480.7386363636363</v>
-      </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12">
-        <f t="shared" si="5"/>
-        <v>0.13977272727272727</v>
-      </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="12">
-        <f t="shared" si="4"/>
-        <v>3670.7386363636365</v>
-      </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12">
-        <f t="shared" si="5"/>
-        <v>0.15</v>
-      </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="12">
-        <f t="shared" si="4"/>
-        <v>10452.272727272728</v>
-      </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12">
-        <f t="shared" si="5"/>
-        <v>0.25568181818181818</v>
-      </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H40" s="12">
-        <f t="shared" si="4"/>
-        <v>20531.25</v>
-      </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12">
-        <f t="shared" si="5"/>
-        <v>0.2693181818181819</v>
-      </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-    </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H41" s="12">
-        <f t="shared" si="4"/>
-        <v>30859.090909090908</v>
-      </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12">
-        <f t="shared" si="5"/>
-        <v>2.1818181818181821</v>
-      </c>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13">
+        <f>K30/$P$21</f>
+        <v>810</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="11">
+        <f>360/K33</f>
+        <v>0.20477815699658702</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J46" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" ref="K46:K54" si="6">360/K34</f>
+        <v>4.9792531120331947E-2</v>
+      </c>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="11">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="11">
+        <f t="shared" si="6"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="11">
+        <f t="shared" si="6"/>
+        <v>29.268292682926827</v>
+      </c>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="11">
+        <f t="shared" si="6"/>
+        <v>27.272727272727273</v>
+      </c>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" s="11">
+        <f t="shared" si="6"/>
+        <v>15.189873417721515</v>
+      </c>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J53" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="11">
+        <f t="shared" si="6"/>
+        <v>1.8749999999999998</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J54" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="11">
+        <f>360/K42</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="124">
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="K40:M40"/>
     <mergeCell ref="H41:J41"/>
@@ -2075,24 +2241,10 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H15:J15"/>
@@ -2108,6 +2260,20 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Aanwezigheid.xlsx
+++ b/Aanwezigheid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Aanwezigheid" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
   <si>
     <t>Maandag</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Rotatie om as in graden per seconde</t>
+  </si>
+  <si>
+    <t>Staking NS</t>
   </si>
 </sst>
 </file>
@@ -326,9 +329,13 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,12 +343,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -645,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,6 +658,8 @@
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
     <col min="17" max="17" width="18.85546875" customWidth="1"/>
   </cols>
@@ -874,6 +879,15 @@
       <c r="J10" t="s">
         <v>0</v>
       </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
@@ -1249,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
@@ -1271,11 +1285,11 @@
         <v>30</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="11" t="s">
         <v>32</v>
       </c>
@@ -1297,11 +1311,11 @@
         <v>4878000</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>88</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="11">
         <v>58.6</v>
       </c>
@@ -1323,11 +1337,11 @@
         <v>12104000</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>225</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="11">
         <v>241</v>
       </c>
@@ -1349,11 +1363,11 @@
         <v>12760000</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>365.24</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="11">
         <v>1</v>
       </c>
@@ -1367,24 +1381,24 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="18">
         <v>227900000000</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18">
         <v>6787000</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14">
+      <c r="G12" s="18"/>
+      <c r="H12" s="19">
         <v>687</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18">
         <v>1.02</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
       <c r="P12" s="15" t="s">
         <v>37</v>
       </c>
@@ -1397,24 +1411,24 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="18">
         <v>778300000000</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18">
         <v>139822000</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14">
+      <c r="G13" s="18"/>
+      <c r="H13" s="19">
         <v>4343.5</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18">
         <v>0.41</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
       <c r="P13" s="17">
         <f>F11*10</f>
         <v>127600000</v>
@@ -1428,93 +1442,93 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="18">
         <v>1427000000000</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18">
         <v>120500000</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="14">
+      <c r="G14" s="18"/>
+      <c r="H14" s="19">
         <v>10767.5</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="12">
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="18">
         <v>0.44</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="18">
         <v>2871000000000</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18">
         <v>51120000</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="14">
+      <c r="G15" s="18"/>
+      <c r="H15" s="19">
         <v>30660</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="12">
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18">
         <v>0.75</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="18">
         <v>4497100000000</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18">
         <v>49530000</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14">
+      <c r="G16" s="18"/>
+      <c r="H16" s="19">
         <v>60225</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="12">
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="18">
         <v>0.79</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="18">
         <v>5913000000000</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18">
         <v>2301000</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="14">
+      <c r="G17" s="18"/>
+      <c r="H17" s="19">
         <v>90520</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12">
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="18">
         <v>6.4</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
@@ -1524,15 +1538,15 @@
         <v>36</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="12">
+      <c r="F18" s="18">
         <v>1391000000</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="11">
         <v>27</v>
       </c>
@@ -1548,20 +1562,20 @@
         <v>34</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="18"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
@@ -1577,23 +1591,23 @@
         <v>3.822884012539185E-2</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <f>((H9*24)*60)*60</f>
         <v>7603200</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12">
         <f>((K9*24)*60)*60</f>
         <v>5063040</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="P21" s="19">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="P21" s="14">
         <f>K23/30</f>
         <v>2880</v>
       </c>
-      <c r="Q21" s="19"/>
+      <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
@@ -1609,18 +1623,18 @@
         <v>9.4858934169278999E-2</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <f t="shared" ref="H22:H29" si="2">((H10*24)*60)*60</f>
         <v>19440000</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12">
         <f t="shared" ref="K22:K30" si="3">((K10*24)*60)*60</f>
         <v>20822400</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -1636,18 +1650,18 @@
         <v>0.1</v>
       </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <f t="shared" si="2"/>
         <v>31556736</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12">
         <f t="shared" si="3"/>
         <v>86400</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -1663,18 +1677,18 @@
         <v>5.3189655172413794E-2</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <f t="shared" si="2"/>
         <v>59356800</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13">
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12">
         <f t="shared" si="3"/>
         <v>88128</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -1690,18 +1704,18 @@
         <v>1.0957836990595611</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <f t="shared" si="2"/>
         <v>375278400</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13">
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12">
         <f t="shared" si="3"/>
         <v>35424</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
       <c r="Q25" t="s">
         <v>56</v>
       </c>
@@ -1723,18 +1737,18 @@
         <v>0.94435736677115989</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <f t="shared" si="2"/>
         <v>930312000</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13">
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12">
         <f t="shared" si="3"/>
         <v>38016</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
       <c r="P26" t="s">
         <v>55</v>
       </c>
@@ -1760,18 +1774,18 @@
         <v>0.40062695924764891</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <f t="shared" si="2"/>
         <v>2649024000</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13">
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12">
         <f t="shared" si="3"/>
         <v>64800</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
@@ -1787,18 +1801,18 @@
         <v>0.38816614420062695</v>
       </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <f t="shared" si="2"/>
         <v>5203440000</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12">
         <f t="shared" si="3"/>
         <v>68256.000000000015</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -1814,18 +1828,18 @@
         <v>1.8032915360501566E-2</v>
       </c>
       <c r="G29" s="11"/>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <f t="shared" si="2"/>
         <v>7820928000</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13">
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12">
         <f t="shared" si="3"/>
         <v>552960.00000000012</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
@@ -1840,24 +1854,24 @@
         <v>10.901253918495298</v>
       </c>
       <c r="G30" s="11"/>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13">
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12">
         <f t="shared" si="3"/>
         <v>2332800</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
       <c r="K32" s="11" t="s">
         <v>50</v>
       </c>
@@ -1868,170 +1882,170 @@
       <c r="C33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <f>H21/$P$21</f>
         <v>2640</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13">
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12">
         <f>K21/$P$21</f>
         <v>1758</v>
       </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <f t="shared" ref="H34:H41" si="4">H22/$P$21</f>
         <v>6750</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13">
-        <f t="shared" ref="K34:K42" si="5">K22/$P$21</f>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12">
+        <f t="shared" ref="K34:K41" si="5">K22/$P$21</f>
         <v>7230</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <f t="shared" si="4"/>
         <v>10957.2</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13">
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="12">
         <f t="shared" si="4"/>
         <v>20610</v>
       </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13">
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12">
         <f t="shared" si="5"/>
         <v>30.6</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="12">
         <f t="shared" si="4"/>
         <v>130305</v>
       </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13">
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12">
         <f t="shared" si="5"/>
         <v>12.3</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <f t="shared" si="4"/>
         <v>323025</v>
       </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13">
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12">
         <f t="shared" si="5"/>
         <v>13.2</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <f t="shared" si="4"/>
         <v>919800</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13">
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12">
         <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <f t="shared" si="4"/>
         <v>1806750</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13">
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12">
         <f t="shared" si="5"/>
         <v>23.700000000000006</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="12">
         <f t="shared" si="4"/>
         <v>2715600</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13">
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12">
         <f t="shared" si="5"/>
         <v>192.00000000000003</v>
       </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13">
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12">
         <f>K30/$P$21</f>
         <v>810</v>
       </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
@@ -2054,7 +2068,7 @@
         <v>20</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" ref="K46:K54" si="6">360/K34</f>
+        <f t="shared" ref="K46:K53" si="6">360/K34</f>
         <v>4.9792531120331947E-2</v>
       </c>
       <c r="L46" s="11"/>
@@ -2150,40 +2164,72 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="D29:E29"/>
@@ -2208,72 +2254,40 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:M24"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
